--- a/docs/ST1/ST1_14.08.2024_output.xlsx
+++ b/docs/ST1/ST1_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731617025.0743754</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731617026.274838</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617025.0743754.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617026.274838.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.17</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.26</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.08999999999997499</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731617026.2907643</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731617027.3611133</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617026.2907643.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617027.3611133.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.26</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.19</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731617027.377044</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731617028.4693568</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617027.377044.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617028.4693568.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.19</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.19</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731617028.4843183</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731617028.7139804</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617028.4843183.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731617028.7139804.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.19</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>282.9</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2900000000000205</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731617033.093086</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731617034.1412811</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617033.093086.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617034.1412811.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.17</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.26</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.08999999999997499</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731617034.1562448</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731617035.1017115</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617034.1562448.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617035.1017115.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.26</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.19</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731617035.1166716</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731617036.137939</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617035.1166716.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617036.137939.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.19</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.19</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731617036.1528988</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731617036.358352</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617036.1528988.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617036.358352.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>283.19</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>282.9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2900000000000205</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731617038.480046</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731617041.2726293</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617038.480046.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617041.2726293.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>284.24</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>284</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731617041.288587</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731617041.9093294</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617041.288587.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617041.9093294.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>284</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>284.23</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2300000000000182</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731617041.924262</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731617043.3962634</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617041.924262.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617043.3962634.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>284.23</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>283.99</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731617043.4122212</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731617046.67149</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617043.4122212.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731617046.67149.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>283.99</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>283.42</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.5699999999999932</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1163,95 +1251,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731617046.6874213</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731617046.6874213.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731617046.6874213.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>283.42</v>
       </c>
-      <c r="J15" t="n">
-        <v>283.42</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>282.91</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5099999999999909</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731617049.1379604</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731617050.0552852</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617049.1379604.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617050.0552852.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>130.96</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>131</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731617050.0712426</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731617050.975638</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617050.0712426.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617050.975638.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>131</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>131.19</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731617052.4285104</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731617055.488948</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617052.4285104.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731617055.488948.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>131.24</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>130.86</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1363,95 +1475,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731617055.504933</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731617055.504933.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731617055.504933.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>130.86</v>
       </c>
-      <c r="J19" t="n">
-        <v>130.86</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731617056.1417866</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731617057.1364613</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617056.1417866.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617057.1364613.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6479</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6462.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>16.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731617057.685414</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731617058.8631785</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617057.685414.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617058.8631785.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6467.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6508.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-41</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731617058.8791435</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731617060.3398418</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617058.8791435.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617060.3398418.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6508.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6512.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731617060.8199525</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731617062.5627844</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617060.8199525.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731617062.5627844.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6510</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6490</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-20</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -1615,95 +1757,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731617062.578742</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731617062.578742.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731617062.578742.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6490</v>
       </c>
-      <c r="J24" t="n">
-        <v>6490</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6461</v>
+      </c>
+      <c r="M24" t="n">
+        <v>29</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731617064.645373</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731617065.490041</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617064.645373.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617065.490041.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>503.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>502.15</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.350000000000023</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731617066.1664033</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731617067.6915941</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617066.1664033.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617067.6915941.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>502.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>503.55</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1.350000000000023</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731617067.7085211</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731617069.433</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617067.7085211.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617069.433.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>503.55</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>504.85</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731617069.8270407</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731617073.074024</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617069.8270407.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731617073.074024.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>503.95</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>501.3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-2.649999999999977</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -1867,95 +2039,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731617073.0899851</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731617073.0899851.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731617073.0899851.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>501.3</v>
       </c>
-      <c r="J29" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>501.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731617073.7280588</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731617074.5096378</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617073.7280588.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617074.5096378.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>226.17</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>226.28</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.1100000000000136</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731617074.5255685</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731617076.1187735</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617074.5255685.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617076.1187735.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>226.28</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>225.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.4799999999999898</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731617076.1347241</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731617076.767466</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617076.1347241.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617076.767466.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>225.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>225.49</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731617077.6529398</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731617079.002666</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617077.6529398.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731617079.002666.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>225.56</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>225.42</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731617082.778558</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731617083.8990018</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731617082.778558.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731617083.8990018.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1062.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1058.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731617084.3877788</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731617087.6741908</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731617084.3877788.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731617087.6741908.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1060.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1064</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-3.799999999999955</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731617089.273862</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731617090.1492934</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731617089.273862.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731617090.1492934.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1060.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1057.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2275,139 +2495,157 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731617090.6004398</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731617090.6004398.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731617090.6004398.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1060.2</v>
       </c>
-      <c r="J37" t="n">
-        <v>1060.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1060</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731617098.252884</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731617098.252884.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731617098.252884.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>12.153</v>
       </c>
-      <c r="J38" t="n">
-        <v>12.153</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>12.088</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.06500000000000128</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731617100.6892135</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731617103.2716708</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617100.6892135.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617103.2716708.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>127.36</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>127.28</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2415,51 +2653,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731617103.2876291</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731617105.1984303</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617103.2876291.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617105.1984303.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>127.28</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>127.56</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2467,51 +2711,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731617107.2165487</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731617108.2719734</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617107.2165487.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731617108.2719734.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>126.94</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>126.58</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2519,51 +2769,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731617109.5946465</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731617109.7706552</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617109.5946465.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617109.7706552.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>165.38</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>165.34</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2571,51 +2827,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731617111.4743378</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731617114.371654</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617111.4743378.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731617114.371654.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>165.1</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>165.2</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731617117.9424965</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731617120.384442</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617117.9424965.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731617120.384442.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>50.41</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.565</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1550000000000011</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2675,51 +2943,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731617128.116587</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731617129.3350062</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617128.116587.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617129.3350062.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1408.8</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.5999999999999091</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731617133.3823638</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731617133.695783</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617133.3823638.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731617133.695783.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1404.8</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1399.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>5.399999999999864</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2779,95 +3059,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731617134.4157557</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731617134.4157557.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731617134.4157557.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1401.6</v>
       </c>
-      <c r="J47" t="n">
-        <v>1401.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1401</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731617138.092178</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731617139.846837</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731617138.092178.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731617139.846837.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>59.73</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>59.7</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.02999999999999403</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2875,51 +3167,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731617139.8637898</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731617141.189727</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731617139.8637898.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731617141.189727.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>59.7</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>59.68</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2927,95 +3225,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731617143.5534637</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731617143.5534637.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731617143.5534637.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>59.58</v>
       </c>
-      <c r="J50" t="n">
-        <v>59.58</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>59.59</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731617144.0215578</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731617146.0761244</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617144.0215578.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617146.0761244.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>101.45</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>101.29</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3023,51 +3333,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731617146.0930793</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731617147.1770504</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617146.0930793.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617147.1770504.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>101.29</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>101.5</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.2099999999999937</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731617147.1930084</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731617148.4663594</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617147.1930084.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617148.4663594.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>101.5</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>101.65</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731617149.5845976</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731617152.973589</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617149.5845976.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731617152.973589.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>101.75</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>101.19</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -3179,139 +3507,157 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731617152.9915133</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731617152.9915133.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731617152.9915133.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>101.19</v>
       </c>
-      <c r="J55" t="n">
-        <v>101.19</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>101.06</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1299999999999955</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731617160.4653585</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731617160.4653585.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731617160.4653585.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>56.87</v>
       </c>
-      <c r="J56" t="n">
-        <v>56.87</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>56.71</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731617162.7074196</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731617163.751364</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617162.7074196.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617163.751364.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>158.04</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>158.3</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.2600000000000193</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3319,51 +3665,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731617163.7673485</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731617165.0418735</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617163.7673485.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617165.0418735.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>158.3</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>158.1</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3371,51 +3723,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731617165.057825</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731617166.003174</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617165.057825.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617166.003174.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>158.1</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>157.6</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.5</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3423,51 +3781,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731617166.6427534</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731617167.365082</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617166.6427534.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617167.365082.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>158.08</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>157.58</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.5</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3475,51 +3839,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731617167.3820398</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731617168.8607354</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617167.3820398.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731617168.8607354.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>157.58</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>157</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.5800000000000125</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3527,95 +3897,107 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731617168.8766928</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731617168.8766928.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731617168.8766928.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>157</v>
       </c>
-      <c r="J62" t="n">
-        <v>157</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>156.98</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731617169.824149</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731617175.0248594</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731617169.824149.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731617175.0248594.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.3104</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.3106</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.000199999999999978</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3623,51 +4005,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731617179.8279357</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731617181.7368503</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617179.8279357.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731617181.7368503.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>20.882</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>20.823</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.05900000000000105</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3675,95 +4063,107 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731617186.3117545</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731617186.3117545.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731617186.3117545.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>20.78</v>
       </c>
-      <c r="J65" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>20.717</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.06300000000000239</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731617186.9730778</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731617188.635243</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617186.9730778.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617188.635243.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>693.8</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>692.1</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-1.699999999999932</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -3771,51 +4171,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731617188.6521976</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731617189.7020447</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617188.6521976.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617189.7020447.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>692.1</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>693.2</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-1.100000000000023</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3823,51 +4229,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731617189.7189994</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731617191.0892074</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617189.7189994.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617191.0892074.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>693.2</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>691.95</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-1.25</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -3875,51 +4287,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731617191.1061912</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731617192.6221068</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617191.1061912.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731617192.6221068.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>691.95</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>693.55</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3927,95 +4345,107 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731617192.640064</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731617192.640064.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731617192.640064.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>693.55</v>
       </c>
-      <c r="J70" t="n">
-        <v>693.55</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>690.1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-3.449999999999932</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731617200.0410893</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731617202.8855484</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731617200.0410893.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731617202.8855484.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>158.71</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>156.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-1.909999999999997</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -4023,44 +4453,50 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731617202.9042404</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731617202.9042404.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731617202.9042404.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>156.8</v>
       </c>
-      <c r="J72" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>156.26</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.5400000000000205</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -4121,19 +4557,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5900000000000318</v>
+        <v>1.100000000000023</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06555555555555909</v>
+        <v>0.1222222222222247</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -4143,16 +4579,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.04000000000004889</v>
+        <v>-0.02000000000003865</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.006666666666674814</v>
+        <v>-0.003333333333339775</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01999999999999996</v>
+        <v>-0.009999999999999962</v>
       </c>
       <c r="F3" t="n">
         <v>-0</v>
@@ -4165,19 +4601,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7799999999999869</v>
+        <v>-0.6499999999999915</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1559999999999974</v>
+        <v>-0.1299999999999983</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7699999999999999</v>
+        <v>-0.6399999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="5">
@@ -4187,19 +4623,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-40.5</v>
+        <v>-11.5</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.1</v>
+        <v>-2.3</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.63</v>
+        <v>-0.18</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.13</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
@@ -4209,19 +4645,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.649999999999864</v>
+        <v>-9.099999999999795</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.129999999999973</v>
+        <v>-1.819999999999959</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.82</v>
+        <v>-1.32</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.16</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="7">
@@ -4231,19 +4667,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.349999999999966</v>
+        <v>-1.549999999999955</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2699999999999932</v>
+        <v>-0.3099999999999909</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.27</v>
+        <v>-0.31</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="8">
@@ -4253,19 +4689,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2299999999999898</v>
+        <v>-0.1699999999999875</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05749999999999744</v>
+        <v>-0.04249999999999687</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.17</v>
+        <v>-0.12</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="9">
@@ -4319,19 +4755,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.799999999999955</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6999999999999886</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4341,19 +4777,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.999999999999773</v>
+        <v>6.599999999999682</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1.999999999999924</v>
+        <v>2.199999999999894</v>
       </c>
       <c r="E12" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="F12" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
@@ -4385,16 +4821,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009999999999990905</v>
+        <v>-0.01999999999999602</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.003333333333330302</v>
+        <v>-0.00666666666666534</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="F14" t="n">
         <v>-0.01</v>
@@ -4407,19 +4843,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05900000000000105</v>
+        <v>0.1220000000000034</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02950000000000053</v>
+        <v>0.06100000000000172</v>
       </c>
       <c r="E15" t="n">
-        <v>0.28</v>
+        <v>0.58</v>
       </c>
       <c r="F15" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
@@ -4429,19 +4865,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.909999999999997</v>
+        <v>-1.369999999999976</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9549999999999983</v>
+        <v>-0.6849999999999881</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.2</v>
+        <v>-0.86</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="17">
@@ -4473,19 +4909,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
@@ -4539,19 +4975,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.06500000000000128</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.06500000000000128</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="22">
